--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H2">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I2">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J2">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>5.826443717647334</v>
+        <v>8.47174747859</v>
       </c>
       <c r="R2">
-        <v>52.437993458826</v>
+        <v>76.24572730731001</v>
       </c>
       <c r="S2">
-        <v>4.186413204460226E-05</v>
+        <v>9.092716823246099E-05</v>
       </c>
       <c r="T2">
-        <v>4.307751429393608E-05</v>
+        <v>9.583075752006463E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H3">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I3">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J3">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>1067.133327729858</v>
+        <v>1473.47857301643</v>
       </c>
       <c r="R3">
-        <v>9604.199949568721</v>
+        <v>13261.30715714787</v>
       </c>
       <c r="S3">
-        <v>0.007667560643547727</v>
+        <v>0.0158148285739379</v>
       </c>
       <c r="T3">
-        <v>0.00788979580109642</v>
+        <v>0.01666770264323906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H4">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I4">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J4">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>48.822132500846</v>
+        <v>26.31881023346033</v>
       </c>
       <c r="R4">
-        <v>292.932795005076</v>
+        <v>157.912861400762</v>
       </c>
       <c r="S4">
-        <v>0.0003507965237051653</v>
+        <v>0.0002824794874757479</v>
       </c>
       <c r="T4">
-        <v>0.000240642630117074</v>
+        <v>0.0001984755036725204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.829186</v>
+        <v>16.71895933333333</v>
       </c>
       <c r="H5">
-        <v>47.487558</v>
+        <v>50.156878</v>
       </c>
       <c r="I5">
-        <v>0.01520167221269649</v>
+        <v>0.02912144738161902</v>
       </c>
       <c r="J5">
-        <v>0.01552195334947967</v>
+        <v>0.03059269312988411</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>993.9119665715194</v>
+        <v>1204.996367625035</v>
       </c>
       <c r="R5">
-        <v>8945.207699143675</v>
+        <v>10844.96730862532</v>
       </c>
       <c r="S5">
-        <v>0.007141450913398997</v>
+        <v>0.0129332121519729</v>
       </c>
       <c r="T5">
-        <v>0.007348437403972242</v>
+        <v>0.01363068422545247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>466.501167</v>
       </c>
       <c r="I6">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J6">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>57.23694601736101</v>
+        <v>78.79437961213502</v>
       </c>
       <c r="R6">
-        <v>515.132514156249</v>
+        <v>709.149416509215</v>
       </c>
       <c r="S6">
-        <v>0.0004112585964990883</v>
+        <v>0.0008456991699612639</v>
       </c>
       <c r="T6">
-        <v>0.0004231784394889365</v>
+        <v>0.0008913066761771772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J7">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>10483.14471615012</v>
+        <v>13704.59050225693</v>
       </c>
       <c r="R7">
-        <v>94348.30244535106</v>
+        <v>123341.3145203123</v>
       </c>
       <c r="S7">
-        <v>0.07532343499866399</v>
+        <v>0.1470912122091606</v>
       </c>
       <c r="T7">
-        <v>0.07750659548766814</v>
+        <v>0.1550236586551501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J8">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>479.6115602969791</v>
+        <v>244.7870796097155</v>
       </c>
       <c r="R8">
-        <v>2877.669361781874</v>
+        <v>1468.722477658293</v>
       </c>
       <c r="S8">
-        <v>0.003446102401980806</v>
+        <v>0.002627296909528506</v>
       </c>
       <c r="T8">
-        <v>0.002363989063820978</v>
+        <v>0.001845989179871673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1493359129474374</v>
+        <v>0.2708539632042961</v>
       </c>
       <c r="J9">
-        <v>0.1524822428572096</v>
+        <v>0.2845377865576845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>9763.843664078891</v>
+        <v>11207.48009331522</v>
       </c>
       <c r="R9">
-        <v>87874.59297671</v>
+        <v>100867.320839837</v>
       </c>
       <c r="S9">
-        <v>0.07015511695029356</v>
+        <v>0.1202897549156457</v>
       </c>
       <c r="T9">
-        <v>0.07218847986623152</v>
+        <v>0.1267768320464856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H10">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I10">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J10">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>65.93067651365544</v>
+        <v>98.73587193965</v>
       </c>
       <c r="R10">
-        <v>593.376088622899</v>
+        <v>888.6228474568501</v>
       </c>
       <c r="S10">
-        <v>0.0004737247420751101</v>
+        <v>0.001059730977714352</v>
       </c>
       <c r="T10">
-        <v>0.0004874550922586939</v>
+        <v>0.001116880953580495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H11">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I11">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J11">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>12075.43153886457</v>
+        <v>17172.98491944455</v>
       </c>
       <c r="R11">
-        <v>108678.8838497811</v>
+        <v>154556.864275001</v>
       </c>
       <c r="S11">
-        <v>0.08676432570822266</v>
+        <v>0.1843174495899561</v>
       </c>
       <c r="T11">
-        <v>0.0892790868545331</v>
+        <v>0.1942574607977952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H12">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I12">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J12">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>552.4598504007956</v>
+        <v>306.7384483994783</v>
       </c>
       <c r="R12">
-        <v>3314.759102404774</v>
+        <v>1840.43069039687</v>
       </c>
       <c r="S12">
-        <v>0.003969531543996293</v>
+        <v>0.003292220238087815</v>
       </c>
       <c r="T12">
-        <v>0.002723055807368287</v>
+        <v>0.002313177058604808</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.1193723333333</v>
+        <v>194.8548433333333</v>
       </c>
       <c r="H13">
-        <v>537.358117</v>
+        <v>584.56453</v>
       </c>
       <c r="I13">
-        <v>0.1720185728536685</v>
+        <v>0.3394024086099587</v>
       </c>
       <c r="J13">
-        <v>0.1756427994052303</v>
+        <v>0.3565493705749576</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>11246.87571470065</v>
+        <v>14043.89912969535</v>
       </c>
       <c r="R13">
-        <v>101221.8814323059</v>
+        <v>126395.0921672582</v>
       </c>
       <c r="S13">
-        <v>0.08081099085937447</v>
+        <v>0.1507330078042004</v>
       </c>
       <c r="T13">
-        <v>0.08315320165107021</v>
+        <v>0.158861851764977</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H14">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I14">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J14">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>23.7256671848745</v>
+        <v>41.97095110593</v>
       </c>
       <c r="R14">
-        <v>142.354003109247</v>
+        <v>251.82570663558</v>
       </c>
       <c r="S14">
-        <v>0.0001704735361753293</v>
+        <v>0.0004504737354046416</v>
       </c>
       <c r="T14">
-        <v>0.0001169430063824357</v>
+        <v>0.0003165114830978797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H15">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I15">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J15">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>4345.438041205276</v>
+        <v>7299.94576679722</v>
       </c>
       <c r="R15">
-        <v>26072.62824723166</v>
+        <v>43799.67460078332</v>
       </c>
       <c r="S15">
-        <v>0.03122281802837227</v>
+        <v>0.07835023393967901</v>
       </c>
       <c r="T15">
-        <v>0.02141851626879067</v>
+        <v>0.05505037651759644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H16">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I16">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J16">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>198.8069778246555</v>
+        <v>130.389332338629</v>
       </c>
       <c r="R16">
-        <v>795.227911298622</v>
+        <v>521.5573293545159</v>
       </c>
       <c r="S16">
-        <v>0.001428466827171274</v>
+        <v>0.00139946720404915</v>
       </c>
       <c r="T16">
-        <v>0.0006532752200520655</v>
+        <v>0.0006555283256822338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.45750049999999</v>
+        <v>82.82950199999999</v>
       </c>
       <c r="H17">
-        <v>128.915001</v>
+        <v>165.659004</v>
       </c>
       <c r="I17">
-        <v>0.06190222253062919</v>
+        <v>0.1442742299952585</v>
       </c>
       <c r="J17">
-        <v>0.04213761911214986</v>
+        <v>0.1010420758958371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>4047.275777935751</v>
+        <v>5969.824260723959</v>
       </c>
       <c r="R17">
-        <v>24283.6546676145</v>
+        <v>35818.94556434375</v>
       </c>
       <c r="S17">
-        <v>0.02908046413891032</v>
+        <v>0.06407405511612568</v>
       </c>
       <c r="T17">
-        <v>0.01994888461692469</v>
+        <v>0.04501965956946059</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H18">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I18">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J18">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>230.5567664229095</v>
+        <v>62.937984597565</v>
       </c>
       <c r="R18">
-        <v>2075.010897806186</v>
+        <v>566.4418613780849</v>
       </c>
       <c r="S18">
-        <v>0.001656595237343616</v>
+        <v>0.0006755126646748568</v>
       </c>
       <c r="T18">
-        <v>0.00170460968687722</v>
+        <v>0.0007119422239642408</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H19">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I19">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J19">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>42227.26955008873</v>
+        <v>10946.71104960567</v>
       </c>
       <c r="R19">
-        <v>380045.4259507986</v>
+        <v>98520.39944645103</v>
       </c>
       <c r="S19">
-        <v>0.3034111499221265</v>
+        <v>0.1174909237692831</v>
       </c>
       <c r="T19">
-        <v>0.3122051624953058</v>
+        <v>0.1238270634114285</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H20">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I20">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J20">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>1931.928556208739</v>
+        <v>195.5267053563611</v>
       </c>
       <c r="R20">
-        <v>11591.57133725244</v>
+        <v>1173.160232138167</v>
       </c>
       <c r="S20">
-        <v>0.01388128266525477</v>
+        <v>0.002098585879336866</v>
       </c>
       <c r="T20">
-        <v>0.009522410127339204</v>
+        <v>0.00147450667347017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>626.3728126666666</v>
+        <v>124.2078576666667</v>
       </c>
       <c r="H21">
-        <v>1879.118438</v>
+        <v>372.623573</v>
       </c>
       <c r="I21">
-        <v>0.6015416194555684</v>
+        <v>0.2163479508088675</v>
       </c>
       <c r="J21">
-        <v>0.6142153852759307</v>
+        <v>0.2272780738416368</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>39329.84513824403</v>
+        <v>8952.113246690957</v>
       </c>
       <c r="R21">
-        <v>353968.6062441963</v>
+        <v>80569.0192202186</v>
       </c>
       <c r="S21">
-        <v>0.2825925916308435</v>
+        <v>0.09608292849557266</v>
       </c>
       <c r="T21">
-        <v>0.2907832029664085</v>
+        <v>0.101264561532774</v>
       </c>
     </row>
   </sheetData>
